--- a/data/performance_sheets_option2/window3/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window3/BA11 Overall Model Peformance Results.xlsx
@@ -1802,19 +1802,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01894103921949863</v>
+        <v>0.01853200793266296</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1180455386638641</v>
+        <v>0.1162437871098518</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1531491577625275</v>
+        <v>0.1506547033786774</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1376264481104509</v>
+        <v>0.1361323177377913</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>14.72926139831543</v>
+        <v>15.52642434835434</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -1832,19 +1832,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01778664998710155</v>
+        <v>0.02006885781884193</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1146090030670166</v>
+        <v>0.1185508519411087</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.148825079202652</v>
+        <v>0.1516037583351135</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1333665999682887</v>
+        <v>0.1416645962082338</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>14.72997963428497</v>
+        <v>15.85808396339417</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -3117,19 +3117,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.09468796849250793</v>
+        <v>0.1534806787967682</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2561624348163605</v>
+        <v>0.3114996254444122</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0941416472196579</v>
+        <v>0.1144901737570763</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3077141018746264</v>
+        <v>0.3917661021537828</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.961384952068329</v>
+        <v>11.45052388310432</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -3143,23 +3143,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1196004822850227</v>
+        <v>0.1204903647303581</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2972354590892792</v>
+        <v>0.2841844856739044</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1074500381946564</v>
+        <v>0.100801944732666</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.345833026596684</v>
+        <v>0.3471172204462898</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>9.118793159723282</v>
+        <v>10.53812280297279</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -4425,23 +4425,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03701380267739296</v>
+        <v>0.1331596672534943</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1624206155538559</v>
+        <v>0.257050096988678</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06050841510295868</v>
+        <v>0.0895727202296257</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1923897156227249</v>
+        <v>0.364910492112099</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.26502388715744</v>
+        <v>9.514825791120529</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -4455,23 +4455,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.0654207319021225</v>
+        <v>0.06173637136816978</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2189896553754807</v>
+        <v>0.1850331872701645</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.0781870037317276</v>
+        <v>0.0668448880314827</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.255774767915294</v>
+        <v>0.2484680489885365</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>8.056142181158066</v>
+        <v>6.690432876348495</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -5741,19 +5741,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03513190150260925</v>
+        <v>0.04525431245565414</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1330824792385101</v>
+        <v>0.176288902759552</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04593154788017273</v>
+        <v>0.06028008460998535</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1874350594275501</v>
+        <v>0.2127306100580124</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.688992142677307</v>
+        <v>6.246113032102585</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -5771,19 +5771,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03009071759879589</v>
+        <v>0.03450867906212807</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1494300663471222</v>
+        <v>0.1473060995340347</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.05383231118321419</v>
+        <v>0.05077269300818443</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1734667622306818</v>
+        <v>0.185765117990779</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>5.524507910013199</v>
+        <v>5.184491723775864</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7047,23 +7047,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07783063501119614</v>
+        <v>0.05410077050328255</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2294081300497055</v>
+        <v>0.1822440922260284</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.7530619502067566</v>
+        <v>0.593517005443573</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2789814241328554</v>
+        <v>0.2325957233125376</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>35.72492003440857</v>
+        <v>32.78090059757233</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -7081,19 +7081,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1172790676355362</v>
+        <v>0.05909283831715584</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2882602512836456</v>
+        <v>0.1926711648702621</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.8294153213500977</v>
+        <v>0.6112353205680847</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3424603154170366</v>
+        <v>0.2430901855632099</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>40.16916453838348</v>
+        <v>34.64193940162659</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -8357,23 +8357,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05351793766021729</v>
+        <v>0.04136308282613754</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.179340124130249</v>
+        <v>0.1389266103506088</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5863196849822998</v>
+        <v>0.497616171836853</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2313394425086593</v>
+        <v>0.2033791602552669</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>39.10920321941376</v>
+        <v>26.0635644197464</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8387,23 +8387,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.09734191745519638</v>
+        <v>0.0643853172659874</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2119805961847305</v>
+        <v>0.174621045589447</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.8101667165756226</v>
+        <v>0.6597388982772827</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3119966625706057</v>
+        <v>0.2537426201212311</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>38.69800865650177</v>
+        <v>29.31637465953827</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9667,53 +9667,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02228278294205666</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.09855307638645172</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.3367112278938293</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1492741871257608</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>18.88023167848587</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.04187534749507904</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.158953994512558</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.4440414905548096</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.2046346683606642</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>39.47658538818359</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.05988620594143867</v>
+        <v>0.0512048676609993</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2050940692424774</v>
+        <v>0.1841001808643341</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.4741978049278259</v>
+        <v>0.5239471197128296</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2447165828901643</v>
+        <v>0.2262849258368734</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>49.58620071411133</v>
+        <v>31.54844045639038</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -10981,19 +10981,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2739365100860596</v>
+        <v>0.2591586112976074</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3607824742794037</v>
+        <v>0.3038130402565002</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2306317836046219</v>
+        <v>0.2127490043640137</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5233894439956347</v>
+        <v>0.5090762332869286</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.4540559053421</v>
+        <v>13.73600214719772</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -11011,19 +11011,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.4554318487644196</v>
+        <v>0.5895041227340698</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.5220118165016174</v>
+        <v>0.5112701654434204</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2734041213989258</v>
+        <v>0.2372239381074905</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.674856909844168</v>
+        <v>0.7677917183286558</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>23.37327301502228</v>
+        <v>24.08437579870224</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12287,53 +12287,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.2332445085048676</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.3111816942691803</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1786049753427505</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.4829539403554624</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>13.60568702220917</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 10, 'lr': 0.1, 'batch_size': 32}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.3046767115592957</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.4292067587375641</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.2142357975244522</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.551975281656068</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>20.30833661556244</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.316108226776123</v>
+        <v>0.5606276392936707</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3587630689144135</v>
+        <v>0.5568827986717224</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.205532431602478</v>
+        <v>0.2524765133857727</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.5622350280586608</v>
+        <v>0.7487507190605366</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>19.45047825574875</v>
+        <v>24.51011836528778</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -13601,19 +13601,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2444853484630585</v>
+        <v>0.2400907129049301</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2636531293392181</v>
+        <v>0.2656054794788361</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1619429141283035</v>
+        <v>0.1612077057361603</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4944545969682742</v>
+        <v>0.4899905232807367</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.56193381547928</v>
+        <v>11.54371574521065</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -13631,19 +13631,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1374633610248566</v>
+        <v>0.1055252999067307</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2131752073764801</v>
+        <v>0.1754453927278519</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1112035140395164</v>
+        <v>0.1039063483476639</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3707605170792281</v>
+        <v>0.324846579028825</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>17.64643341302872</v>
+        <v>8.079682290554047</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -14655,23 +14655,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02169915474951267</v>
+        <v>0.01699451170861721</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1202277988195419</v>
+        <v>0.1105526387691498</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1510996520519257</v>
+        <v>0.1430473625659943</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.147306329631529</v>
+        <v>0.1303629997684052</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.03061354160309</v>
+        <v>14.73666727542877</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15929,53 +15929,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.009653588756918907</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.08054713159799576</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.1121979281306267</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.0982526781157588</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>11.31283938884735</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.009245317429304123</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.07844524085521698</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.1042841225862503</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.09615257370088501</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>27.84909904003143</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.006999560166150331</v>
+        <v>0.009752731770277023</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.06345072388648987</v>
+        <v>0.07782983779907227</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.08347547799348831</v>
+        <v>0.1027155593037605</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.08366337410211432</v>
+        <v>0.0987559201783722</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>26.37083530426025</v>
+        <v>10.59098318219185</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -16991,19 +16991,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02402677945792675</v>
+        <v>0.02352027222514153</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1310965716838837</v>
+        <v>0.1282181292772293</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2117071449756622</v>
+        <v>0.2086811512708664</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1550057400805749</v>
+        <v>0.1533632036217995</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>20.26542127132416</v>
+        <v>18.21656227111816</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -18013,19 +18013,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02372767962515354</v>
+        <v>0.02647626586258411</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.128718838095665</v>
+        <v>0.1296242326498032</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1902098655700684</v>
+        <v>0.1953074038028717</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1540379161932332</v>
+        <v>0.1627152908075455</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>26.20348334312439</v>
+        <v>23.73881191015244</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -19035,19 +19035,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04222729802131653</v>
+        <v>0.03559882566332817</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1555166244506836</v>
+        <v>0.1529337614774704</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05259997770190239</v>
+        <v>0.05236731097102165</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2054928174445923</v>
+        <v>0.1886765106295115</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.642593652009964</v>
+        <v>5.3858682513237</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -20057,19 +20057,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0481066070497036</v>
+        <v>0.04479137435555458</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1820974051952362</v>
+        <v>0.1773831248283386</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06777026504278183</v>
+        <v>0.06559160351753235</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2193321842541664</v>
+        <v>0.2116397277345503</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.892281025648117</v>
+        <v>6.417226791381836</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -21075,23 +21075,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0633663609623909</v>
+        <v>0.06049205362796783</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2146335989236832</v>
+        <v>0.2090517431497574</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08086373656988144</v>
+        <v>0.07811581343412399</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2517267585347074</v>
+        <v>0.2459513236963116</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.829555869102478</v>
+        <v>7.647982239723206</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22349,53 +22349,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.02608556300401688</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1382549405097961</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2200249135494232</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1615102566526871</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>19.52772587537766</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.02558253891766071</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.1364592611789703</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.2177671045064926</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.1599454248100292</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>19.69430893659592</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.02557413838803768</v>
+        <v>0.02485881745815277</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1341529935598373</v>
+        <v>0.1339801698923111</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2174097448587418</v>
+        <v>0.215326800942421</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1599191620414442</v>
+        <v>0.1576667925029008</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>20.12331336736679</v>
+        <v>18.97934973239899</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -23659,53 +23659,53 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03431148454546928</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1466773450374603</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.05006357282400131</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.185233594538003</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>5.159325152635574</v>
+      </c>
+      <c r="I23" s="9" t="inlineStr">
+        <is>
+          <t>Long Short-Term Memory Network</t>
+        </is>
+      </c>
+      <c r="J23" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K23" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
-      <c r="D23" s="5" t="n">
-        <v>0.0400654524564743</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.1534894555807114</v>
-      </c>
-      <c r="F23" s="5" t="n">
-        <v>0.05208688601851463</v>
-      </c>
-      <c r="G23" s="5" t="n">
-        <v>0.2001635642580195</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <v>5.478198081254959</v>
-      </c>
-      <c r="I23" s="9" t="inlineStr">
-        <is>
-          <t>Long Short-Term Memory Network</t>
-        </is>
-      </c>
-      <c r="J23" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K23" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
-        </is>
-      </c>
       <c r="L23" s="8" t="n">
-        <v>0.03945845365524292</v>
+        <v>0.03582737594842911</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1545338034629822</v>
+        <v>0.1507634371519089</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.05255152657628059</v>
+        <v>0.05146929621696472</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1986415204715342</v>
+        <v>0.1892812086511207</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>5.415815487504005</v>
+        <v>5.307644978165627</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -24974,19 +24974,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06084922328591347</v>
+        <v>0.06588906049728394</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2078285813331604</v>
+        <v>0.2182562351226807</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07790463417768478</v>
+        <v>0.08216068148612976</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2466763533172839</v>
+        <v>0.2566886450493748</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.739897817373276</v>
+        <v>7.975583523511887</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -25004,19 +25004,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05904389545321465</v>
+        <v>0.06057411432266235</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2005981951951981</v>
+        <v>0.2022374123334885</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.07588126510381699</v>
+        <v>0.07660099864006042</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2429894965903149</v>
+        <v>0.2461180901979015</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>7.827818393707275</v>
+        <v>7.405582815408707</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -26285,19 +26285,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.048970777541399</v>
+        <v>0.04710014536976814</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1920474320650101</v>
+        <v>0.1858915239572525</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07087717205286026</v>
+        <v>0.06880182027816772</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2212934195618998</v>
+        <v>0.2170256790561157</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.874922662973404</v>
+        <v>6.721118837594986</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -26315,19 +26315,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04380011558532715</v>
+        <v>0.04709149152040482</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1779604852199554</v>
+        <v>0.1819098144769669</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.06604079157114029</v>
+        <v>0.06763274967670441</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2092847715084094</v>
+        <v>0.2170057407544898</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>6.893935054540634</v>
+        <v>6.580433249473572</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -27598,19 +27598,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.008702386170625687</v>
+        <v>0.02998600900173187</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0698162317276001</v>
+        <v>0.1485162675380707</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08543488383293152</v>
+        <v>0.1934547424316406</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.09328658087112898</v>
+        <v>0.1731646875137419</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.39241969585419</v>
+        <v>20.1076939702034</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -27628,19 +27628,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01177453435957432</v>
+        <v>0.02053834870457649</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.09777669608592987</v>
+        <v>0.1210198700428009</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1318075805902481</v>
+        <v>0.1583713889122009</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1085105264920151</v>
+        <v>0.1433120675469323</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>14.82481360435486</v>
+        <v>16.16794168949127</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -28908,23 +28908,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02852819673717022</v>
+        <v>0.03021501377224922</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1484931707382202</v>
+        <v>0.1490927785634995</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2391086965799332</v>
+        <v>0.2353578060865402</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1689029210439246</v>
+        <v>0.1738246638778549</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>21.88044488430023</v>
+        <v>21.31683975458145</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -28938,23 +28938,23 @@
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_layers': 1, 'module__hidden_size': 75, 'max_epochs': 30, 'lr': 0.1, 'batch_size': 16}</t>
+          <t>{'module__num_layers': 1, 'module__hidden_size': 25, 'max_epochs': 20, 'lr': 0.1, 'batch_size': 16}</t>
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.0351012721657753</v>
+        <v>0.02842947281897068</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1546050012111664</v>
+        <v>0.1411485224962234</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2571446895599365</v>
+        <v>0.2335198819637299</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1873533350804711</v>
+        <v>0.1686104172907792</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>22.24696725606918</v>
+        <v>20.26330083608627</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -30224,19 +30224,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02427494153380394</v>
+        <v>0.02585351467132568</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1362052112817764</v>
+        <v>0.1391713470220566</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2083860039710999</v>
+        <v>0.2228051722049713</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1558041768817638</v>
+        <v>0.160790281644525</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>19.05878931283951</v>
+        <v>19.62881684303284</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -30254,19 +30254,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01912109740078449</v>
+        <v>0.03476084023714066</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1119925677776337</v>
+        <v>0.1649118959903717</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1757925003767014</v>
+        <v>0.2426259070634842</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1382790562622717</v>
+        <v>0.1864425923364633</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>19.24247592687607</v>
+        <v>22.93665260076523</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">

--- a/data/performance_sheets_option2/window3/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window3/BA11 Overall Model Peformance Results.xlsx
@@ -1736,53 +1736,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.01942574046552181</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1175597310066223</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.171023428440094</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1393762550276116</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>16.72043800354004</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.02519389241933823</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.130440965294838</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.1892971694469452</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.1587258404272544</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>17.63456463813782</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.02226171083748341</v>
+        <v>0.02132861316204071</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1243821308016777</v>
+        <v>0.1210099756717682</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1805256009101868</v>
+        <v>0.1769303977489471</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1492035885543086</v>
+        <v>0.1460431893723247</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>17.69302934408188</v>
+        <v>17.20723807811737</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -3051,53 +3051,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2154811769723892</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.3494244515895844</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.163527324795723</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.4641995012625382</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>13.96642774343491</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.2024965286254883</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.3128084242343903</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.1514403373003006</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.449996142900679</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>11.99981719255447</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.2106367200613022</v>
+        <v>0.1476165950298309</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3071787357330322</v>
+        <v>0.2508261501789093</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1520989835262299</v>
+        <v>0.1238585636019707</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4589517622379308</v>
+        <v>0.3842090512075828</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>12.15706765651703</v>
+        <v>10.35462319850922</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -4363,53 +4363,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.07041584700345993</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.203119158744812</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.07881239801645279</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.2653598443688493</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>7.731664180755615</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.1053232848644257</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.2434719651937485</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.09707958996295929</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.3245354909165185</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>8.827102184295654</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.109381802380085</v>
+        <v>0.09617266803979874</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2297861129045486</v>
+        <v>0.2503152191638947</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.09618249535560608</v>
+        <v>0.09829894453287125</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3307291979551926</v>
+        <v>0.3101171843671336</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>9.196902066469193</v>
+        <v>9.420913457870483</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -5675,53 +5675,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.0194752924144268</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1108384653925896</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.04057698324322701</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1395539050490054</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>4.022974520921707</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.03844613209366798</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.1572858095169067</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.05686621740460396</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.1960768525187713</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>6.51513859629631</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.03990503773093224</v>
+        <v>0.04420924559235573</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1697224378585815</v>
+        <v>0.1837456077337265</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.06179051473736763</v>
+        <v>0.06640467047691345</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1997624532561919</v>
+        <v>0.2102599476656354</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>6.452825665473938</v>
+        <v>6.624757498502731</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -6989,19 +6989,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0626426637172699</v>
+        <v>0.06959337741136551</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1909814774990082</v>
+        <v>0.183854952454567</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.246933341026306</v>
+        <v>1.392672538757324</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2502851647966173</v>
+        <v>0.2638055674381523</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>39.06331360340118</v>
+        <v>34.25729274749756</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -7019,19 +7019,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.07336925715208054</v>
+        <v>0.09074381738901138</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2117930501699448</v>
+        <v>0.2149118632078171</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.265286922454834</v>
+        <v>1.406890511512756</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2708676007795701</v>
+        <v>0.3012371447697169</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>39.11403715610504</v>
+        <v>37.75147199630737</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8295,23 +8295,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03505503758788109</v>
+        <v>0.07796184718608856</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1318472027778625</v>
+        <v>0.1846645325422287</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9902031421661377</v>
+        <v>1.488158106803894</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1872299056985317</v>
+        <v>0.2792164880269225</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>41.47526919841766</v>
+        <v>33.59075486660004</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8325,23 +8325,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0804474949836731</v>
+        <v>0.05946163088083267</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2036840617656708</v>
+        <v>0.1528217792510986</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>1.488494753837585</v>
+        <v>1.338483333587646</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2836326761564561</v>
+        <v>0.2438475566431468</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>40.35091698169708</v>
+        <v>29.7929584980011</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -9605,23 +9605,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.01}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1856390237808228</v>
+        <v>0.06125907972455025</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3835608959197998</v>
+        <v>0.1773893535137177</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.20635449886322</v>
+        <v>1.327282309532166</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4308584730289318</v>
+        <v>0.247505716549235</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>54.70002889633179</v>
+        <v>35.26085615158081</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -9639,19 +9639,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.03679304197430611</v>
+        <v>0.1019836515188217</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1544389277696609</v>
+        <v>0.2540306746959686</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.9154506921768188</v>
+        <v>1.304006576538086</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1918151244670402</v>
+        <v>0.3193487928876853</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>47.94318079948425</v>
+        <v>69.26945447921753</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10919,19 +10919,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5544283390045166</v>
+        <v>0.5051050782203674</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3937993347644806</v>
+        <v>0.3844074606895447</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.589762270450592</v>
+        <v>0.5896788239479065</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.744599448700116</v>
+        <v>0.7107074491099467</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.30659520626068</v>
+        <v>19.35912519693375</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10949,19 +10949,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.5658726096153259</v>
+        <v>0.439638614654541</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3967897295951843</v>
+        <v>0.3560784459114075</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6064820289611816</v>
+        <v>0.5188929438591003</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7522450462550923</v>
+        <v>0.6630524976610381</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>21.25500291585922</v>
+        <v>18.09842586517334</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12225,23 +12225,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.02}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>3.09438103499544e+30</v>
+        <v>0.5788137316703796</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1759085057802240</v>
+        <v>0.6061630845069885</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>985702443515904</v>
+        <v>0.5222383737564087</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1759085283604931</v>
+        <v>0.7607980886348096</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>200</v>
+        <v>29.08763885498047</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -12259,19 +12259,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.6147756576538086</v>
+        <v>0.5084965825080872</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4108618497848511</v>
+        <v>0.3379108905792236</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.6570961475372314</v>
+        <v>0.6183297038078308</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7840763085655685</v>
+        <v>0.7130894631868341</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.29211181402206</v>
+        <v>16.83321595191956</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -13539,19 +13539,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4975105226039886</v>
+        <v>0.4992067515850067</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4072354733943939</v>
+        <v>0.4516600370407104</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3234756588935852</v>
+        <v>0.3301110863685608</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7053442582200472</v>
+        <v>0.7065456472054772</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>20.47146111726761</v>
+        <v>20.98514139652252</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -13569,19 +13569,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.5644805431365967</v>
+        <v>0.692390501499176</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4343355596065521</v>
+        <v>0.5079644918441772</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3461369872093201</v>
+        <v>0.3902636468410492</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.7513192018953041</v>
+        <v>0.8321000549808755</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>19.89777833223343</v>
+        <v>22.22215682268143</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -14611,23 +14611,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02273768745362759</v>
+        <v>0.02092210948467255</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1267541646957397</v>
+        <v>0.1171954199671745</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1834869682788849</v>
+        <v>0.1718837022781372</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1507902100722311</v>
+        <v>0.144644769987278</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>17.68300533294678</v>
+        <v>16.65223836898804</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -15867,23 +15867,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04068800061941147</v>
+        <v>0.03934405371546745</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1544008105993271</v>
+        <v>0.1571702063083649</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3929433524608612</v>
+        <v>0.3853027522563934</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2017126684653482</v>
+        <v>0.1983533556950007</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>27.39141881465912</v>
+        <v>25.61846375465393</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -15897,23 +15897,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.04697520285844803</v>
+        <v>0.02520723454654217</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1729769557714462</v>
+        <v>0.1151961535215378</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3978118002414703</v>
+        <v>0.3215435445308685</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.21673763599903</v>
+        <v>0.1587678637084412</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>27.23564505577087</v>
+        <v>19.61345672607422</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -16947,19 +16947,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03436538577079773</v>
+        <v>0.0331365168094635</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1518823206424713</v>
+        <v>0.1417246013879776</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2664300501346588</v>
+        <v>0.2655744552612305</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1853790327162102</v>
+        <v>0.1820343835912971</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>22.44571000337601</v>
+        <v>21.5695396065712</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -17965,23 +17965,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05427151173353195</v>
+        <v>0.02899376302957535</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2005632519721985</v>
+        <v>0.1436971575021744</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4204322993755341</v>
+        <v>0.2835057973861694</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2329624685084101</v>
+        <v>0.1702755502988475</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>29.132479429245</v>
+        <v>24.35333579778671</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -18987,23 +18987,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0434136800467968</v>
+        <v>0.04653282091021538</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1707933396100998</v>
+        <v>0.17976014316082</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.0620829239487648</v>
+        <v>0.06483196467161179</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.208359497136072</v>
+        <v>0.2157146747678873</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.430381536483765</v>
+        <v>6.49956688284874</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -20013,19 +20013,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.08588079363107681</v>
+        <v>0.08624688535928726</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2247160971164703</v>
+        <v>0.2239243984222412</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.08939036726951599</v>
+        <v>0.08965709060430527</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2930542503207841</v>
+        <v>0.2936782003473994</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>8.60479548573494</v>
+        <v>8.469260483980179</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -21031,23 +21031,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.05}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1862121671438217</v>
+        <v>0.1894585192203522</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2831836044788361</v>
+        <v>0.2879976034164429</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1412114202976227</v>
+        <v>0.143230065703392</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4315230783443937</v>
+        <v>0.4352683301371146</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>11.52252703905106</v>
+        <v>11.68850436806679</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -22287,53 +22287,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02886004373431206</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1352329105138779</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2512884140014648</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1698824409240462</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>20.73428779840469</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.030777707695961</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.140865683555603</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.2561625242233276</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.175435765156256</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>22.58114367723465</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.03047247789800167</v>
+        <v>0.03119381703436375</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1438870877027512</v>
+        <v>0.1455254703760147</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2572814226150513</v>
+        <v>0.259307473897934</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1745636786333333</v>
+        <v>0.1766177143843837</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.44238406419754</v>
+        <v>22.22959697246552</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -23597,23 +23597,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04207125306129456</v>
+        <v>0.04241837188601494</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1662406474351883</v>
+        <v>0.1665284782648087</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.05963855609297752</v>
+        <v>0.06028690934181213</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2051127813211419</v>
+        <v>0.2059572088711996</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.507938355207443</v>
+        <v>6.015123799443245</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -23627,23 +23627,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.04498099908232689</v>
+        <v>0.03747166320681572</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1718125492334366</v>
+        <v>0.1597779840230942</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.06220993399620056</v>
+        <v>0.05778433009982109</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2120872440349181</v>
+        <v>0.1935759881979573</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>6.490930169820786</v>
+        <v>5.775049328804016</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -24912,19 +24912,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1689645648002625</v>
+        <v>0.2447955161333084</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2615025639533997</v>
+        <v>0.3167121112346649</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1331384181976318</v>
+        <v>0.1638105809688568</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4110529951238191</v>
+        <v>0.4947681438141591</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>11.75166144967079</v>
+        <v>12.63579279184341</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -24938,23 +24938,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.1849502623081207</v>
+        <v>0.1619141399860382</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2816870212554932</v>
+        <v>0.2453582435846329</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1409676373004913</v>
+        <v>0.1264567226171494</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4300584405730467</v>
+        <v>0.4023855613538316</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>11.57096326351166</v>
+        <v>10.14656275510788</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -26219,23 +26219,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 100, 'module__activation_func': Tanh(), 'lr': 0.02}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.085030198097229</v>
+        <v>0.07702437043190002</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2321977615356445</v>
+        <v>0.2036760300397873</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.09043898433446884</v>
+        <v>0.08298436552286148</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2915993794527502</v>
+        <v>0.277532647506379</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>9.034375846385956</v>
+        <v>7.736954838037491</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -26249,23 +26249,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.09172786027193069</v>
+        <v>0.07207050919532776</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2250239700078964</v>
+        <v>0.2000142335891724</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.09090755134820938</v>
+        <v>0.08033695071935654</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.3028660764627341</v>
+        <v>0.2684595112774508</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>8.623310923576355</v>
+        <v>7.596540451049805</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -27532,53 +27532,53 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02999256737530231</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1522808223962784</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2280378341674805</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.1731836232884112</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>21.51436805725098</v>
+      </c>
+      <c r="I22" s="9" t="inlineStr">
+        <is>
+          <t>Multilayer Perceptron</t>
+        </is>
+      </c>
+      <c r="J22" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K22" s="8" t="inlineStr">
+        <is>
           <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
-      <c r="D22" s="5" t="n">
-        <v>0.02475657500326633</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>0.1382219642400742</v>
-      </c>
-      <c r="F22" s="5" t="n">
-        <v>0.1986750513315201</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>0.1573422225699966</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>18.12063008546829</v>
-      </c>
-      <c r="I22" s="9" t="inlineStr">
-        <is>
-          <t>Multilayer Perceptron</t>
-        </is>
-      </c>
-      <c r="J22" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K22" s="8" t="inlineStr">
-        <is>
-          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
-        </is>
-      </c>
       <c r="L22" s="8" t="n">
-        <v>0.02258248440921307</v>
+        <v>0.02377390302717686</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1155426502227783</v>
+        <v>0.1312870979309082</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1611305475234985</v>
+        <v>0.1954654157161713</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1502746965034801</v>
+        <v>0.1541878822319603</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>17.81302988529205</v>
+        <v>18.65339577198029</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -28846,23 +28846,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.04516845569014549</v>
+        <v>0.04496746510267258</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1722451746463776</v>
+        <v>0.1678532958030701</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4156835377216339</v>
+        <v>0.3981935977935791</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2125287173304951</v>
+        <v>0.2120553350016749</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>27.32513248920441</v>
+        <v>27.14176774024963</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -28876,23 +28876,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.04216330870985985</v>
+        <v>0.04526397958397865</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1650819331407547</v>
+        <v>0.1725677698850632</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3936624825000763</v>
+        <v>0.409733921289444</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2053370612185239</v>
+        <v>0.2127533303710629</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>27.42427289485931</v>
+        <v>27.80727744102478</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -30158,23 +30158,23 @@
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>{'module__num_units': 50, 'module__activation_func': Tanh(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03531084954738617</v>
+        <v>0.03001433610916138</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1500172764062881</v>
+        <v>0.1405484676361084</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2779298722743988</v>
+        <v>0.2538701891899109</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1879118132193561</v>
+        <v>0.1732464605963463</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>22.9204460978508</v>
+        <v>21.50323241949081</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -30188,23 +30188,23 @@
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
-          <t>{'module__num_units': 10, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
+          <t>{'module__num_units': 20, 'module__activation_func': ReLU(), 'lr': 0.1}</t>
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.03145122155547142</v>
+        <v>0.03286781907081604</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1459956914186478</v>
+        <v>0.1477837264537811</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2654173374176025</v>
+        <v>0.2667555510997772</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1773449225533999</v>
+        <v>0.1812948401660015</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>22.62771725654602</v>
+        <v>22.52085506916046</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">

--- a/data/performance_sheets_option2/window3/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window3/BA11 Overall Model Peformance Results.xlsx
@@ -770,19 +770,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.01799188092531189</v>
+        <v>0.03474168402683874</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1186304499816319</v>
+        <v>0.1458085355288644</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1696272826101057</v>
+        <v>0.200283817889967</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1341338172323143</v>
+        <v>0.1863912123111998</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>18.00197642917625</v>
+        <v>22.75886895093276</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -800,19 +800,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.03250270772802855</v>
+        <v>0.03271454534848238</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1480394330773291</v>
+        <v>0.1397425365277118</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.204227855967163</v>
+        <v>0.1906060551134697</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1802850735031288</v>
+        <v>0.1808716267093387</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>23.89406442753663</v>
+        <v>21.94211006533216</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -2085,19 +2085,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.316257459281238e-07</v>
+        <v>0.4022691100356651</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0002509969180605647</v>
+        <v>0.5196450310785209</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0001063982959866505</v>
+        <v>0.2153530762739931</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0003628026266830545</v>
+        <v>0.634246884135559</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.01063862700102832</v>
+        <v>22.67085693534974</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -2115,19 +2115,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.727911777847357e-07</v>
+        <v>0.4048508920880359</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0002949255704072701</v>
+        <v>0.5409121451494966</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0001284744009880218</v>
+        <v>0.2220282511307675</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0004156815822053411</v>
+        <v>0.6362789420435316</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.01284561624115674</v>
+        <v>23.047178221503</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -3397,19 +3397,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.006371306663197e-07</v>
+        <v>0.2072395632587745</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.000269126828118174</v>
+        <v>0.3784818606893113</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0001040660305488876</v>
+        <v>0.1517637268855607</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0003172335585437324</v>
+        <v>0.4552357227401805</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.01040612305309429</v>
+        <v>15.08821711678507</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -3427,19 +3427,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.130340477533571e-07</v>
+        <v>0.1807129184466426</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0002833157117024222</v>
+        <v>0.3450079260695241</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0001115889330335266</v>
+        <v>0.1407867435407954</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.000336205365444035</v>
+        <v>0.4251034208832511</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.01115803398562293</v>
+        <v>13.78540033198624</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -4709,19 +4709,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.02847334851216e-07</v>
+        <v>0.1891865924541661</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0002621515513588971</v>
+        <v>0.3684293981733054</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9.324462571925277e-05</v>
+        <v>0.1376300008617787</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.0003206981990146124</v>
+        <v>0.4349558511552248</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.009325024423588337</v>
+        <v>15.26015318292194</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -4739,19 +4739,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>1.803863798138385e-07</v>
+        <v>0.159079587431299</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.0003511594068916885</v>
+        <v>0.329277868006125</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.0001233371673695536</v>
+        <v>0.1238098121261744</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.0004247191775913098</v>
+        <v>0.3988478249048114</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.012334778577126</v>
+        <v>13.72474121846528</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -6019,19 +6019,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04905374744615792</v>
+        <v>0.01414105531172678</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1348942525282142</v>
+        <v>0.1005107813526911</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.180031753678706</v>
+        <v>0.1522337718945985</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2214808060445824</v>
+        <v>0.1189161692610672</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>27.47842772577463</v>
+        <v>15.98104812649535</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -6049,19 +6049,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.04854120948959909</v>
+        <v>0.01326207254649109</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1344970376261711</v>
+        <v>0.09794732433530426</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.173413762029271</v>
+        <v>0.1461621916531723</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.220320696916107</v>
+        <v>0.1151610721836641</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>27.49387665851739</v>
+        <v>15.12229778952996</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -7329,19 +7329,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03076230876773941</v>
+        <v>0.01117562372515061</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.10065807139648</v>
+        <v>0.08775522437540648</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.061274415764125</v>
+        <v>0.1635377920128878</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1753918720116169</v>
+        <v>0.1057148226368971</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>22.56021813802044</v>
+        <v>14.7779894258248</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -7359,19 +7359,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.03082799117911537</v>
+        <v>0.01292078822757069</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1006783586476175</v>
+        <v>0.09405278915623863</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.063519356121315</v>
+        <v>0.1728796094902846</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1755790169100948</v>
+        <v>0.1136696451457938</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>22.56724825816929</v>
+        <v>16.95508660090787</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -8639,19 +8639,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.03145118012700402</v>
+        <v>0.02221693215870389</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.117610951143098</v>
+        <v>0.1131962566343289</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.064104257804335</v>
+        <v>0.286437217716897</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1773448057514063</v>
+        <v>0.1490534540314443</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>28.03778488403989</v>
+        <v>20.63423305811549</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -8669,19 +8669,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.02877552441652384</v>
+        <v>0.02086729007015207</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1025793405321779</v>
+        <v>0.1070461573852048</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>1.05677053477698</v>
+        <v>0.2385449401851052</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.169633500277875</v>
+        <v>0.1444551489914848</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>23.62401367184038</v>
+        <v>19.21986675165265</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -9949,19 +9949,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.5211246120532131</v>
+        <v>0.1424954309215581</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3336833755184812</v>
+        <v>0.3238790400138878</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5727384682036503</v>
+        <v>0.1194523839454943</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.7218896120967617</v>
+        <v>0.3774856698227869</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>16.81272907165241</v>
+        <v>12.52955403119356</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -9979,19 +9979,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.5209976961238757</v>
+        <v>0.1533346021161947</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.3336778446090488</v>
+        <v>0.3362770004627986</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.5726927452202003</v>
+        <v>0.1233110045643023</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.7218017013861049</v>
+        <v>0.3915796242352182</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>16.8131097436111</v>
+        <v>12.97615244636943</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -11259,19 +11259,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3963140912831225</v>
+        <v>0.1370007494831095</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.269534297037626</v>
+        <v>0.2670387841134421</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5259475840008978</v>
+        <v>0.1044484430432899</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.629534821342809</v>
+        <v>0.3701361229103551</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>14.41449720095513</v>
+        <v>10.79012910228141</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -11289,19 +11289,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.4397589409703375</v>
+        <v>0.1153728697050223</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.2802417544319984</v>
+        <v>0.2463381412108982</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.551743323697844</v>
+        <v>0.09989899465728802</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.6631432280965684</v>
+        <v>0.3396658206311349</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>14.86114731823627</v>
+        <v>9.974543686142995</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -12569,19 +12569,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3341419342718552</v>
+        <v>0.1427271061563565</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2808505500743309</v>
+        <v>0.263515967714446</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2446381002270318</v>
+        <v>0.1368934471464912</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.578050113979623</v>
+        <v>0.3777924114594634</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>14.38313770986017</v>
+        <v>11.79432360949121</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -12599,19 +12599,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.340126881879963</v>
+        <v>0.1717288377725348</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.290135949221715</v>
+        <v>0.3118884371422596</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.2495320181462332</v>
+        <v>0.1434178081059787</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.5832039796503132</v>
+        <v>0.4144017830228711</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>14.79341989135394</v>
+        <v>13.38303864170244</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -13879,19 +13879,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04024338070258308</v>
+        <v>0.07553508556925363</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1568905693894846</v>
+        <v>0.233315061967965</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2316665929312089</v>
+        <v>0.3598025590105745</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2006075290276591</v>
+        <v>0.2748364705952498</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>21.58477685365693</v>
+        <v>33.304122457757</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -14901,19 +14901,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.02811754820607819</v>
+        <v>0.01986410401870377</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1279678585492714</v>
+        <v>0.1074974094720334</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1902326352532762</v>
+        <v>0.2286616587492813</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1676828798836607</v>
+        <v>0.1409400724375568</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>20.21080586637246</v>
+        <v>19.04382287636304</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -14931,19 +14931,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.02466042671762567</v>
+        <v>0.03010178652857923</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1113212340714585</v>
+        <v>0.1366043386343726</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1718583157695909</v>
+        <v>0.2169158077340615</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1570363866039514</v>
+        <v>0.1734986643423494</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>17.6725241335294</v>
+        <v>22.58008899310908</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -16211,19 +16211,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.17135804979208</v>
+        <v>0.3468894770984437</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3414249082301286</v>
+        <v>0.453215162776795</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5415784986528283</v>
+        <v>0.9776808523268423</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.4139541638781763</v>
+        <v>0.5889732397133538</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>68.92945276192626</v>
+        <v>64.10376008316366</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -17233,19 +17233,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>2.015034735724739</v>
+        <v>0.08609101259860948</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.017926757261286</v>
+        <v>0.2316553556493845</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.428211520372833</v>
+        <v>0.4818173560327427</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.419519191742309</v>
+        <v>0.2934127001317589</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>114.935707975681</v>
+        <v>36.12027165921437</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -18255,19 +18255,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9417912160220546</v>
+        <v>4.158700297774248</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7595408877367388</v>
+        <v>1.508370200784822</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2704198110401618</v>
+        <v>0.5591964328158379</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.9704592809706416</v>
+        <v>2.039289164825393</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>25.44736189641427</v>
+        <v>74.39153803359714</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -19277,19 +19277,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>4.748770044021249</v>
+        <v>14.05013415788708</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1.759830368441421</v>
+        <v>3.455321587307366</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6583525225842662</v>
+        <v>1.291517959153331</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>2.179167282248256</v>
+        <v>3.748350858429222</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>84.51012561520299</v>
+        <v>130.6492280357874</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -20299,19 +20299,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1.145750813661142</v>
+        <v>10.6770172545855</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8071426284398882</v>
+        <v>2.764809982734926</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3005445726125018</v>
+        <v>1.298046434133867</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1.070397502641492</v>
+        <v>3.267570543168961</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>33.14846474252343</v>
+        <v>110.2914527976326</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -21321,19 +21321,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.01287121123128602</v>
+        <v>0.02469764282300885</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.08563202834452491</v>
+        <v>0.1371902006883774</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1181390320346846</v>
+        <v>0.2110627121139214</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1134513606409637</v>
+        <v>0.1571548370970771</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>12.53255944509987</v>
+        <v>23.85666160286808</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -21351,19 +21351,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.01998722168110158</v>
+        <v>0.02042804453966603</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.1209672007108276</v>
+        <v>0.1141099412225236</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1790174201338877</v>
+        <v>0.1634396800258065</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1413761708390123</v>
+        <v>0.1429267103786623</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>19.98701887951245</v>
+        <v>17.34919584225236</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -22631,19 +22631,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.08879198112204005</v>
+        <v>0.2268196840211071</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2651541837938985</v>
+        <v>0.3799973223033592</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.09584498273079371</v>
+        <v>0.1337282000628839</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2979798334150149</v>
+        <v>0.4762559018228615</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>9.926561799027148</v>
+        <v>14.8883871491639</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -22661,19 +22661,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.1329966971440318</v>
+        <v>0.1406106730781708</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.2993721930238203</v>
+        <v>0.3288962682014027</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1081281580231559</v>
+        <v>0.1201710028135958</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.3646871222624016</v>
+        <v>0.3749808969509924</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>11.74463826906958</v>
+        <v>12.56729371014039</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -23942,19 +23942,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.1049348382747722</v>
+        <v>0.1453884869818583</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2151390074506735</v>
+        <v>0.2648971741297862</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.09334073671045441</v>
+        <v>0.137453697281873</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.323936472591112</v>
+        <v>0.3812984224749144</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>8.909510778174406</v>
+        <v>11.85807733081818</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -23972,19 +23972,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.1319980439940541</v>
+        <v>0.1687464144037276</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.2680672671904308</v>
+        <v>0.3071946578586759</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1062093585897546</v>
+        <v>0.1375970219320574</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.3633153506171382</v>
+        <v>0.4107875538568903</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>10.71208133155415</v>
+        <v>13.16750320109533</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -25253,19 +25253,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.07472352836974826</v>
+        <v>0.255749789652545</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1919161812161036</v>
+        <v>0.3981418332102931</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0674496977051126</v>
+        <v>0.1628789353654156</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.2733560468871107</v>
+        <v>0.5057171043701656</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>7.178312920982591</v>
+        <v>16.25579552736434</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -25283,19 +25283,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.1029953252738325</v>
+        <v>0.1156087895734882</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.2359410632715215</v>
+        <v>0.2453968391016066</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.08245310106045693</v>
+        <v>0.09936917755563611</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.3209288476809657</v>
+        <v>0.3400129255976722</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>8.8746980319786</v>
+        <v>9.935974330173618</v>
       </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
@@ -26566,19 +26566,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>6.504414644900465e-06</v>
+        <v>0.02135653082893724</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.001989070592063427</v>
+        <v>0.1153650512726327</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.002628547921437406</v>
+        <v>0.1625405171978774</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.002550375392937374</v>
+        <v>0.1461387382898089</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.2633343576525441</v>
+        <v>18.31261848374522</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -26596,19 +26596,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>5.93453142080291e-06</v>
+        <v>0.02815216176807918</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.001800384312573148</v>
+        <v>0.1338620782158162</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.002301537789966364</v>
+        <v>0.186685914320878</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.002436089370446599</v>
+        <v>0.167786059516514</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.2305630791883216</v>
+        <v>21.52357791571867</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -27880,19 +27880,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.01640420135517722</v>
+        <v>0.03011623746378193</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.09513128681164637</v>
+        <v>0.1201631848612445</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1309577893551041</v>
+        <v>0.1912492681872061</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.1280788872343027</v>
+        <v>0.1735403050123571</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>13.76026363770887</v>
+        <v>19.6840294685524</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -27910,19 +27910,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>0.01621805853563816</v>
+        <v>0.02888074148548015</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.09506642640104471</v>
+        <v>0.1172071508330191</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.1318077656621381</v>
+        <v>0.1971851472833981</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.1273501414825997</v>
+        <v>0.1699433478706364</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>13.80481912645776</v>
+        <v>19.62628280541363</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">
@@ -29192,19 +29192,19 @@
         </is>
       </c>
       <c r="D7" s="5" t="n">
-        <v>8.379230873112819e-06</v>
+        <v>0.01669457329228728</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.002320970380454996</v>
+        <v>0.1013542524358794</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.003599506169037011</v>
+        <v>0.2021353547927391</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>0.002894690116940468</v>
+        <v>0.1292074815646806</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.359638670624763</v>
+        <v>17.39194282618048</v>
       </c>
       <c r="I7" s="9" t="inlineStr">
         <is>
@@ -29222,19 +29222,19 @@
         </is>
       </c>
       <c r="L7" s="8" t="n">
-        <v>8.032581434309452e-06</v>
+        <v>0.01688258366375536</v>
       </c>
       <c r="M7" s="8" t="n">
-        <v>0.002254359147233755</v>
+        <v>0.1031553429136347</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.003434899768707666</v>
+        <v>0.1886383453068354</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.002834180910652927</v>
+        <v>0.1299329968243454</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.3433377075262021</v>
+        <v>17.30205941511477</v>
       </c>
     </row>
     <row r="8" ht="30.75" customHeight="1">

--- a/data/performance_sheets_option2/window3/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window3/BA11 Overall Model Peformance Results.xlsx
@@ -1158,23 +1158,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 50}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.006227677175367666</v>
+        <v>0.009787880571043081</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.07013242974191913</v>
+        <v>0.08038319242361527</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1062673906100404</v>
+        <v>0.1278157895554757</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.0789156332760985</v>
+        <v>0.0989337180694382</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>10.90199362828113</v>
+        <v>14.19676046850967</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -1188,23 +1188,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 50}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.01608510843851662</v>
+        <v>0.009422136052502991</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.104348050773825</v>
+        <v>0.07726740787296153</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1424720266133005</v>
+        <v>0.1227596072587556</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1268270808562454</v>
+        <v>0.09706768799401266</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>15.68331394110732</v>
+        <v>13.737014321248</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -1220,53 +1220,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.0441042734127546</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.1589638857013131</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.2397721136383145</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.2100101745457934</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>31.05648664390132</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>0.01489863495618776</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.08572824752604997</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0.104670410818723</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.1220599645919486</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>11.30172288333299</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>0.01108360571677216</v>
+        <v>0.01303412229023363</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.08157643177187199</v>
+        <v>0.08988830492123773</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1030539664908283</v>
+        <v>0.1404809928818966</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1052787049539087</v>
+        <v>0.1141670805890806</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>10.87957181592384</v>
+        <v>16.33109308765422</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -1286,19 +1286,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.005371818388721027</v>
+        <v>0.03609552827482029</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05767740574874389</v>
+        <v>0.1514746517063751</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0799552755491689</v>
+        <v>0.2173384776164657</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07329268987232647</v>
+        <v>0.1899882319377184</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>8.242399149206877</v>
+        <v>25.95341647370845</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -1312,23 +1312,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.0287968940377449</v>
+        <v>0.02346536627353878</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1346694674264526</v>
+        <v>0.1231892297575184</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1807014839804815</v>
+        <v>0.1911711494254131</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.16969647620898</v>
+        <v>0.1531840927561957</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>20.79699699605062</v>
+        <v>20.81026678334928</v>
       </c>
     </row>
     <row r="16" ht="121.5" customHeight="1">
@@ -2477,19 +2477,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.3712623836817053</v>
+        <v>1.891773839498786</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.535995317601343</v>
+        <v>1.232868304968821</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1988071971106411</v>
+        <v>0.5084056762071291</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6093130424352537</v>
+        <v>1.375417696374009</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>22.75601659450721</v>
+        <v>64.10498996654314</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -2503,23 +2503,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.5726248538104205</v>
+        <v>1.657848903343636</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.5669907676172303</v>
+        <v>1.064458810729928</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2143476801936829</v>
+        <v>0.4271969111190322</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7567197987435115</v>
+        <v>1.287574814658797</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>25.38794835383396</v>
+        <v>56.07874391799395</v>
       </c>
     </row>
     <row r="14">
@@ -2535,53 +2535,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.4906824581497126</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.521461517983722</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.2913494761951105</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.7004873004913883</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>21.70300777453182</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>0.532100764337331</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.5836875253965723</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0.2474587641747181</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.7294523729054084</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>23.84981237919986</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>0.655415993035116</v>
+        <v>0.3503491522275282</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.607100075991142</v>
+        <v>0.4465830634994993</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.263442810125734</v>
+        <v>0.247274236525233</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.809577663374624</v>
+        <v>0.5919029922441077</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>20.71458375227469</v>
+        <v>19.05506545301107</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -2597,23 +2597,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2203574033619524</v>
+        <v>0.2928421714273323</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3921286815384012</v>
+        <v>0.4483091867219979</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1609170221671404</v>
+        <v>0.2250696128974493</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4694224146352115</v>
+        <v>0.541148936455882</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>16.58729868738146</v>
+        <v>19.26246633374114</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.2124637645268565</v>
+        <v>0.301412982126994</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3649543474081371</v>
+        <v>0.4569552253660787</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1592807351830235</v>
+        <v>0.2283517694415798</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.4609379183001291</v>
+        <v>0.5490109125755097</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>14.73924744293366</v>
+        <v>19.60917220627816</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -3785,53 +3785,53 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.9209023664943535</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.7782320631669662</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.28486690971801</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.9596365804273791</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>36.63924911123164</v>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>Voting Regressor</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr">
+        <is>
           <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>0.298823830363826</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.4460320834017425</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.1624299135759245</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0.5466478119994865</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>18.54205120895979</v>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>Voting Regressor</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
-        </is>
-      </c>
       <c r="L13" s="8" t="n">
-        <v>0.3041030030980708</v>
+        <v>0.9001023929977514</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.4628616458927164</v>
+        <v>0.74574881089283</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1664887444830136</v>
+        <v>0.2741570238492015</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.5514553500493679</v>
+        <v>0.948737262363902</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>18.79166103126847</v>
+        <v>35.70159993671581</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -3851,19 +3851,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4892008629205747</v>
+        <v>0.4778736212778882</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.578562420910268</v>
+        <v>0.541572230737098</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2070425534174271</v>
+        <v>0.2434638770643714</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6994289548771732</v>
+        <v>0.6912840380609755</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>23.61344524462741</v>
+        <v>20.1450228755492</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -3877,23 +3877,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.5648057025291532</v>
+        <v>0.4225929291407527</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.6492633419274551</v>
+        <v>0.5700667199442087</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.2385777415289289</v>
+        <v>0.2177510211102447</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7515355630501814</v>
+        <v>0.6500714800241222</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>26.03436171341903</v>
+        <v>23.96852211740612</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -3913,19 +3913,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1609445306645552</v>
+        <v>0.1830296429464532</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3304258523483574</v>
+        <v>0.3519818028443748</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1207941891859827</v>
+        <v>0.146725761966493</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4011789259975594</v>
+        <v>0.427819638336593</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>12.61254519098868</v>
+        <v>14.12568963721907</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -3943,19 +3943,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.1418086000230119</v>
+        <v>0.1784773136075354</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3123990338625053</v>
+        <v>0.3306253189797487</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1140243715803865</v>
+        <v>0.1361232289766699</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.3765748265922882</v>
+        <v>0.4224657543606764</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>11.88877117530487</v>
+        <v>13.24478120378263</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -5097,23 +5097,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.365314922165244</v>
+        <v>0.8168332897092256</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5755327633367506</v>
+        <v>0.7885531847141148</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2079759754581106</v>
+        <v>0.2798468430505199</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.6044128739241447</v>
+        <v>0.9037882991659195</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>23.5627456397627</v>
+        <v>34.14437257673293</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -5127,23 +5127,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.581745115316429</v>
+        <v>1.672519664085124</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.6419669725940144</v>
+        <v>1.21881816611807</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2236978644068834</v>
+        <v>0.4532546963975154</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7627221743966993</v>
+        <v>1.293259318189946</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>26.48164464390633</v>
+        <v>61.48136307254385</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -5159,53 +5159,53 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.1753837936785407</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.2861391717946234</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.1041525827126397</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.4187884832209939</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>10.89648545857804</v>
+      </c>
+      <c r="I14" s="9" t="inlineStr">
+        <is>
+          <t>Stacking Regressor</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K14" s="8" t="inlineStr">
+        <is>
           <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
-      <c r="D14" s="5" t="n">
-        <v>4.720763713019433e-05</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0.006717598049104405</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>0.002422981300482854</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.006870781406084342</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>0.241992129716374</v>
-      </c>
-      <c r="I14" s="9" t="inlineStr">
-        <is>
-          <t>Stacking Regressor</t>
-        </is>
-      </c>
-      <c r="J14" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K14" s="8" t="inlineStr">
-        <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
-        </is>
-      </c>
       <c r="L14" s="8" t="n">
-        <v>0.183672142175393</v>
+        <v>0.1307758287964208</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3594548582677164</v>
+        <v>0.3149424916821614</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1254557968207901</v>
+        <v>0.1127114038186749</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.4285698801542089</v>
+        <v>0.3616294080912403</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>13.55931658331474</v>
+        <v>11.84246606855576</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -5221,53 +5221,53 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 0.5}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.2109671537448551</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.4061769413535049</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.1444302439533725</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.4593116085457182</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>15.8803294966672</v>
+      </c>
+      <c r="I15" s="9" t="inlineStr">
+        <is>
+          <t>Gradient Boosting Regressor</t>
+        </is>
+      </c>
+      <c r="J15" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 200, 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.5}</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
-        <v>1.221674782657097</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>0.9745545086973095</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>0.3427897129259097</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>1.105293980195811</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>43.94619632136772</v>
-      </c>
-      <c r="I15" s="9" t="inlineStr">
-        <is>
-          <t>Gradient Boosting Regressor</t>
-        </is>
-      </c>
-      <c r="J15" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K15" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
-        </is>
-      </c>
       <c r="L15" s="8" t="n">
-        <v>0.1042351832356667</v>
+        <v>2.023100707974391</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.2665067924221832</v>
+        <v>1.295905935605292</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.09187252140872537</v>
+        <v>0.4846771410062844</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.3228547401474334</v>
+        <v>1.422357447329746</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>9.810045180283922</v>
+        <v>69.86360736623483</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -6407,23 +6407,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.04518772938308239</v>
+        <v>0.008521886156027456</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1350706316729728</v>
+        <v>0.08169090613465159</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.122584378726192</v>
+        <v>0.12853904801278</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.212574056232369</v>
+        <v>0.09231406261251562</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>27.93316521253714</v>
+        <v>13.3942724980776</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -6437,23 +6437,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.04502630938714355</v>
+        <v>0.01428302759478402</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1361421276750732</v>
+        <v>0.0908130795863407</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.119873821835027</v>
+        <v>0.1571907015103586</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2121940371149565</v>
+        <v>0.1195116211704285</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>28.10313027142064</v>
+        <v>18.67117297937411</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -6469,23 +6469,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearRegression()}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05880856099331029</v>
+        <v>0.02511552621143409</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1508807685114685</v>
+        <v>0.1261894605760267</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.333706768805495</v>
+        <v>0.1733334955535343</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2425047648878477</v>
+        <v>0.1584787878911058</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>29.40554684619863</v>
+        <v>18.78495645295575</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -6499,23 +6499,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.04822632896635664</v>
+        <v>0.008883112826339579</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1407135188733756</v>
+        <v>0.07791012846323568</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.169236750605633</v>
+        <v>0.1273428274996332</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2196049383924611</v>
+        <v>0.0942502669828557</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>28.59731776014995</v>
+        <v>13.79928728392985</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -6531,53 +6531,53 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.02207473247341578</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.1250322024968341</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.1982198006289326</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.1485756792796714</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>22.24012456584292</v>
+      </c>
+      <c r="I15" s="9" t="inlineStr">
+        <is>
+          <t>Gradient Boosting Regressor</t>
+        </is>
+      </c>
+      <c r="J15" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K15" s="8" t="inlineStr">
+        <is>
           <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
         </is>
       </c>
-      <c r="D15" s="5" t="n">
-        <v>0.05469914907994643</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>0.163225448513778</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>1.157665406759229</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>0.2338784921277423</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>31.8759429626266</v>
-      </c>
-      <c r="I15" s="9" t="inlineStr">
-        <is>
-          <t>Gradient Boosting Regressor</t>
-        </is>
-      </c>
-      <c r="J15" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K15" s="8" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
-        </is>
-      </c>
       <c r="L15" s="8" t="n">
-        <v>0.0488284034908474</v>
+        <v>0.005336168169881928</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1657965816321791</v>
+        <v>0.05737232408732598</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>1.055525925735141</v>
+        <v>0.09709931846161093</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.220971499272751</v>
+        <v>0.07304908055466494</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>33.15216354881628</v>
+        <v>10.45765939282463</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -7717,23 +7717,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03697803078280751</v>
+        <v>0.004274272603528408</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1149609947764105</v>
+        <v>0.05542250340059231</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.090379880213352</v>
+        <v>0.09477138382583337</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1922967258764629</v>
+        <v>0.06537792137662689</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>24.68918158688493</v>
+        <v>9.442449699880306</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -7747,23 +7747,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.03726720225693014</v>
+        <v>0.006640108041810892</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.116032276059718</v>
+        <v>0.06253021256703739</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.093874294507128</v>
+        <v>0.1120332906990662</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1930471503465672</v>
+        <v>0.08148685809264518</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>24.83413520025046</v>
+        <v>11.08512453143212</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -7779,23 +7779,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06615452949701239</v>
+        <v>0.04273982076862778</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1976129727979353</v>
+        <v>0.1818134821306851</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.324155050136686</v>
+        <v>0.3586383278739438</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2572052283625129</v>
+        <v>0.2067361138471646</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>37.13365773700935</v>
+        <v>29.40422850809043</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -7809,23 +7809,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearRegression()}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.07148399845264874</v>
+        <v>0.05131566841295315</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2060604091058319</v>
+        <v>0.1994302536333513</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.371524450869871</v>
+        <v>0.4015396980759681</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2673649162710933</v>
+        <v>0.2265296192839982</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>38.17183469246847</v>
+        <v>31.74462415633885</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -7841,23 +7841,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04251208628999208</v>
+        <v>0.006982964478830077</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1393287820422499</v>
+        <v>0.06311637904828757</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.182448937277118</v>
+        <v>0.1058340150752054</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2061845927560837</v>
+        <v>0.08356413392616521</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>28.44174635548774</v>
+        <v>11.56993071411507</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -7871,23 +7871,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.04234921811748574</v>
+        <v>0.004495853626442241</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1385165037149908</v>
+        <v>0.05641152075169759</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>1.176930211372201</v>
+        <v>0.09694886607755539</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2057892565647822</v>
+        <v>0.06705112695877856</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>28.2780869693781</v>
+        <v>9.632822275313732</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -9027,23 +9027,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.03456650123834975</v>
+        <v>0.01490323323505413</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.103294349452084</v>
+        <v>0.08966208484173777</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.155160222227955</v>
+        <v>0.2445579834914141</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1859206853428358</v>
+        <v>0.1220787992857651</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>22.30432872805093</v>
+        <v>17.41458033882164</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -9057,23 +9057,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.03519354950333243</v>
+        <v>0.01342235787652841</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.09701042705985552</v>
+        <v>0.08580159308928278</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>1.175093545987445</v>
+        <v>0.2229076441004665</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1875994389739277</v>
+        <v>0.1158549000971837</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>20.90327206845607</v>
+        <v>16.59126550913074</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -9093,19 +9093,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04234172711372365</v>
+        <v>0.02766153143839479</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1288196149979995</v>
+        <v>0.1301592587347807</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.202058239706559</v>
+        <v>0.3604687949401064</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2057710550921185</v>
+        <v>0.166317562026368</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>26.62076092318772</v>
+        <v>23.63326433390976</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -9123,19 +9123,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.09168976926685395</v>
+        <v>0.05900776614844484</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2644861980735655</v>
+        <v>0.1880870391308913</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.375542819432341</v>
+        <v>0.4267654195564308</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.3028031856946917</v>
+        <v>0.2429151418673707</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>44.83537400990734</v>
+        <v>33.00803390835296</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -9151,23 +9151,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03656481490511735</v>
+        <v>0.01655779985337032</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1258862364846473</v>
+        <v>0.08488106152221278</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.112488508000285</v>
+        <v>0.2860562053737314</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1912192848671842</v>
+        <v>0.1286771147227444</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>27.13678184192788</v>
+        <v>17.00409923112513</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -9181,23 +9181,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.01877592111511714</v>
+        <v>0.01748279799860811</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.0975987227971848</v>
+        <v>0.09593754302789091</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.7774019066756872</v>
+        <v>0.2769700789269216</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.1370252572160225</v>
+        <v>0.1322225321138879</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>22.03298251685202</v>
+        <v>18.51031263092164</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -10341,19 +10341,19 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.512300125163881</v>
+        <v>0.05232499287216336</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3380873598932171</v>
+        <v>0.1900034561295903</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5774723851576025</v>
+        <v>0.07016654470979207</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.7157514409093991</v>
+        <v>0.2287465690937535</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>17.01486445408287</v>
+        <v>7.322671135855377</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -10367,23 +10367,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.5133574082627403</v>
+        <v>0.05791007555769215</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.3403186507779192</v>
+        <v>0.196214499358535</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.5784125475944646</v>
+        <v>0.0719171296678448</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.7164896428160985</v>
+        <v>0.2406451236939825</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>17.10007339547975</v>
+        <v>7.561144212832454</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -10399,23 +10399,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5517076377949701</v>
+        <v>0.04201193720820822</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3596372409408285</v>
+        <v>0.1434654914037453</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5881549754922859</v>
+        <v>0.04966391164573731</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7427702456311576</v>
+        <v>0.2049681370560025</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.76587239244833</v>
+        <v>5.188387142459163</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -10429,23 +10429,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.5537345272717408</v>
+        <v>0.04464348456876042</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3832909180503301</v>
+        <v>0.1748451014655653</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5949683290521423</v>
+        <v>0.06181596735366129</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.7441334069047973</v>
+        <v>0.2112900484375931</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>18.70490542474536</v>
+        <v>6.30849117509302</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -10461,23 +10461,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.586678559593703</v>
+        <v>0.07743529926871474</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4219335040964415</v>
+        <v>0.2391866902385677</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5990661342283035</v>
+        <v>0.08436349887004509</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7659494497639534</v>
+        <v>0.2782719879339542</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>19.9725994533928</v>
+        <v>8.909773259342687</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -10491,23 +10491,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.5148254822795786</v>
+        <v>0.04338382901785041</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3669591049170592</v>
+        <v>0.1697487714205255</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.5698671012546762</v>
+        <v>0.06073933052931837</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.7175134021602514</v>
+        <v>0.2082878513448406</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>18.14541939060312</v>
+        <v>6.364171388961094</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -11647,53 +11647,53 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.1159025241853091</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.2082927780942238</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.0814289499023895</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.3404445978207161</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>8.698558717858971</v>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>Voting Regressor</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr">
+        <is>
           <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>0.4501396261498773</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.2890083119887313</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.5592838810304112</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0.6709244563658991</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>15.16190601998442</v>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>Voting Regressor</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
-        </is>
-      </c>
       <c r="L13" s="8" t="n">
-        <v>0.4610386949842923</v>
+        <v>0.07165440525330201</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2944542437448597</v>
+        <v>0.1951085587081074</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.5636891207031072</v>
+        <v>0.08386107231757003</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.678998302637269</v>
+        <v>0.2676834048896233</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>15.39304796532981</v>
+        <v>8.07752701462895</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -11713,19 +11713,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.529602467528693</v>
+        <v>0.2691183229359131</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3450070288864111</v>
+        <v>0.3856717074394787</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6044277395204345</v>
+        <v>0.1635306516371913</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7277379112899732</v>
+        <v>0.518766154385493</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>17.11465762646768</v>
+        <v>15.56615179225501</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -11743,19 +11743,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.4377352690557804</v>
+        <v>0.1050629601802968</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.2873694313928031</v>
+        <v>0.1910430972877119</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.5512952057807969</v>
+        <v>0.0941802761714253</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.6616156505523281</v>
+        <v>0.3241341700288582</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>15.17259121157782</v>
+        <v>7.903212578491554</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -11771,23 +11771,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4454202453683997</v>
+        <v>0.1568641888995582</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3190332621292165</v>
+        <v>0.3272886563244938</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5524275938106595</v>
+        <v>0.1324652639125962</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6673981160959325</v>
+        <v>0.3960608398965469</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>16.38687069806565</v>
+        <v>13.14032090271475</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -11801,23 +11801,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.4761610323984266</v>
+        <v>0.1353023990088567</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.305519023226616</v>
+        <v>0.2984344782333951</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.5688254082288448</v>
+        <v>0.1233583938101826</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.690044224958391</v>
+        <v>0.3678347441567432</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>15.78889852984139</v>
+        <v>11.97904818573976</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -12957,23 +12957,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2991143068154603</v>
+        <v>0.09621402797193596</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.2181328546813191</v>
+        <v>0.2035910794712417</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2103242969981158</v>
+        <v>0.1192516520389258</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.5469134363091295</v>
+        <v>0.3101838615594563</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>11.50198758009906</v>
+        <v>9.495984142279678</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -12987,23 +12987,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.3038478538090966</v>
+        <v>0.08224946188790085</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.209082573717807</v>
+        <v>0.2087039983653424</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2087196851960877</v>
+        <v>0.0965558345532625</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.5512239597560111</v>
+        <v>0.2867916698370105</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>11.08170045860897</v>
+        <v>9.148666016052248</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -13019,23 +13019,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5843619854227883</v>
+        <v>0.1849848985741422</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4809989977797297</v>
+        <v>0.2275097695878177</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3573975513579988</v>
+        <v>0.1609101217936854</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7644357300798991</v>
+        <v>0.4300987079428886</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>21.93775293683774</v>
+        <v>10.56569093125527</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -13049,23 +13049,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.4601658435280719</v>
+        <v>0.201636890451286</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3407287654444687</v>
+        <v>0.2783881603542653</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.2940911622821892</v>
+        <v>0.1756098350446483</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.6783552487657717</v>
+        <v>0.4490399653163246</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>16.78450173643841</v>
+        <v>12.43273488142659</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -13081,23 +13081,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3863765405650877</v>
+        <v>0.1810393877320447</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3551137754308286</v>
+        <v>0.3370884986676313</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2780125670806696</v>
+        <v>0.1771346403621261</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6215919405567351</v>
+        <v>0.4254872356863889</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>17.01361352847776</v>
+        <v>14.75598238845269</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -13111,23 +13111,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.3621774375158033</v>
+        <v>0.2062774543528318</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.2843820032291012</v>
+        <v>0.3486169906187808</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.2415115607317084</v>
+        <v>0.1820149658644146</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.6018117957599396</v>
+        <v>0.4541777783564843</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>14.13229428888049</v>
+        <v>15.22993190991346</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -14177,23 +14177,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 100}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.02918288076536792</v>
+        <v>0.01490378820710876</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1319724205745226</v>
+        <v>0.09798033408731549</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1830856499584939</v>
+        <v>0.1546681558186334</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1708299761908545</v>
+        <v>0.1220810722721125</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>19.69849433257551</v>
+        <v>14.19391013092403</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -14221,23 +14221,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01256920090042126</v>
+        <v>0.1484920796523707</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.081846952895773</v>
+        <v>0.2375545026932952</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1035718645634325</v>
+        <v>0.2957347602431422</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1121124475712722</v>
+        <v>0.385346700585811</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>11.08419695709485</v>
+        <v>46.09700787243847</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -14265,23 +14265,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03702627728318406</v>
+        <v>0.01125698755778994</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1606033739976293</v>
+        <v>0.0898269687463689</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.221576967673556</v>
+        <v>0.1375229203292425</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1924221330387543</v>
+        <v>0.1060989517280446</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>23.54096596972398</v>
+        <v>13.7911384129736</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -15289,23 +15289,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.01039753791048263</v>
+        <v>0.01177382159407431</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.07846827972353053</v>
+        <v>0.08617046645511338</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1218866290293</v>
+        <v>0.2065769100493164</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1019683181703152</v>
+        <v>0.1085072421273083</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>13.05591444961765</v>
+        <v>16.80536096864774</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -15319,23 +15319,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.00982740225619135</v>
+        <v>0.0133963010160595</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.07410219044382896</v>
+        <v>0.09686884823651193</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1176080225524245</v>
+        <v>0.2234755025585314</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.09913325504688802</v>
+        <v>0.1157423907479861</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>12.51745254159851</v>
+        <v>18.41926241762036</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -15355,19 +15355,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01625908191257938</v>
+        <v>0.03024249763107714</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09639158546728442</v>
+        <v>0.1266138478319371</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1486961111150705</v>
+        <v>0.3705165544736278</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1275111050559103</v>
+        <v>0.173903702177605</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>15.46619190157567</v>
+        <v>22.8008725133358</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -15385,19 +15385,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.01368689161603501</v>
+        <v>0.02797275631620079</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.09613202154926694</v>
+        <v>0.1225885261603617</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.2192599318108107</v>
+        <v>0.3196750739907355</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1169909894651507</v>
+        <v>0.1672505794196265</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>16.80107637707817</v>
+        <v>22.11532160444509</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -15413,23 +15413,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 200, 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04559795776748539</v>
+        <v>0.03376009352659107</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1683084737137323</v>
+        <v>0.1469058710131005</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3388445163446789</v>
+        <v>0.415463584836827</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2135367831720928</v>
+        <v>0.1837391997549545</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>27.48760837373078</v>
+        <v>26.46021264400427</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -15443,23 +15443,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 200, 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.01262505142202097</v>
+        <v>0.03376009352659107</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.08608138250940178</v>
+        <v>0.1469058710131005</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1537930880388131</v>
+        <v>0.415463584836827</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.1123612540959782</v>
+        <v>0.1837391997549545</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>14.92618634175118</v>
+        <v>26.46021264400427</v>
       </c>
     </row>
     <row r="16" ht="121.5" customHeight="1">
@@ -16509,23 +16509,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.0388621023495786</v>
+        <v>0.04683152132390502</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1526901361531687</v>
+        <v>0.165758665624973</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2151427995328935</v>
+        <v>0.3466207878743333</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1971347314644951</v>
+        <v>0.2164059179502839</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>24.01044985305289</v>
+        <v>32.28085213476013</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -16557,19 +16557,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02483120411762342</v>
+        <v>0.008001959458530581</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1234536899166371</v>
+        <v>0.07764059216775412</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.179004152584723</v>
+        <v>0.1302078939328934</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1575791995081312</v>
+        <v>0.08945367213552824</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>19.18150851160172</v>
+        <v>13.42552579120245</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -16597,23 +16597,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03928414133125136</v>
+        <v>0.01236935988357631</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1583265539750578</v>
+        <v>0.08912626381066661</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2457944690059714</v>
+        <v>0.1502751566037693</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1982022737792162</v>
+        <v>0.1112176239791891</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>24.28600248719698</v>
+        <v>16.45830389569397</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -17531,23 +17531,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2350969807814074</v>
+        <v>0.01384565120125302</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3560071661682788</v>
+        <v>0.09631010685175755</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8373239657332032</v>
+        <v>0.215406107036712</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4848680034621871</v>
+        <v>0.1176675452333949</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>61.06527278184863</v>
+        <v>17.47039021476285</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -17579,19 +17579,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04772958293475262</v>
+        <v>0.01775020334633183</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1402240735617497</v>
+        <v>0.1046612736807838</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3196834112623548</v>
+        <v>0.3012199429955941</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2184710116577314</v>
+        <v>0.1332298890877412</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>27.19210656908103</v>
+        <v>20.11301670157347</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -17619,23 +17619,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.030506850871355</v>
+        <v>0.04220703276553919</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1346531749434235</v>
+        <v>0.1626438503729845</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2279042553792247</v>
+        <v>0.4110356888449695</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1746621048520686</v>
+        <v>0.2054435026121274</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>21.21404617536519</v>
+        <v>28.81331172743967</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -18553,23 +18553,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.2187280210969364</v>
+        <v>1.326742380919571</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3945805787532696</v>
+        <v>0.7769944769379918</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.140681369135949</v>
+        <v>0.2877220500834361</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.4676836763207974</v>
+        <v>1.151843036580753</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>15.2174592603724</v>
+        <v>41.42736857934327</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -18601,19 +18601,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04646250168212166</v>
+        <v>0.05650631814417815</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1426325563168261</v>
+        <v>0.1802099797357656</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05352272748645187</v>
+        <v>0.06745407142135534</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2155516218498985</v>
+        <v>0.2377105764247316</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>5.077290384366648</v>
+        <v>6.561282379571942</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -18641,23 +18641,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 5, 'min_samples_leaf': 5, 'min_impurity_decrease': 1, 'max_leaf_nodes': 20, 'max_features': 'log2', 'max_depth': 10, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.15206400279622</v>
+        <v>0.109380371317124</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3273701122728627</v>
+        <v>0.2748591771688831</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.113027945556421</v>
+        <v>0.09746173493715324</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3899538470078479</v>
+        <v>0.330727034451561</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>12.25706666684981</v>
+        <v>10.4499142107113</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -19575,23 +19575,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.540978086383506</v>
+        <v>1.840362084334883</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9409476173970628</v>
+        <v>1.229216231320612</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3472088168117737</v>
+        <v>0.4641024828788241</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.241361384280784</v>
+        <v>1.356599456116242</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>49.56537136607139</v>
+        <v>55.92419966467964</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -19623,19 +19623,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4398958848315898</v>
+        <v>0.15297211288377</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4677972533175891</v>
+        <v>0.2713110995205569</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1826674573006138</v>
+        <v>0.1260118206808305</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6632464736669089</v>
+        <v>0.3911164952846786</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>15.46618955737363</v>
+        <v>10.81793897525345</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -19667,19 +19667,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1448935197637982</v>
+        <v>0.1966035733933567</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3181432473751586</v>
+        <v>0.3579937043985228</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1155263820443957</v>
+        <v>0.1465564017227612</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3806488142156733</v>
+        <v>0.4434000151030181</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>12.11171506072897</v>
+        <v>14.3805510049068</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -20597,23 +20597,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.3134729283535259</v>
+        <v>1.956840258039265</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4368753735399066</v>
+        <v>1.142051649968837</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.167450604464088</v>
+        <v>0.5125018704952736</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.5598865316772015</v>
+        <v>1.398871065552242</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>17.99955044513542</v>
+        <v>58.92132999232707</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -20645,19 +20645,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1250088587423953</v>
+        <v>0.1766363598219773</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2140686780380001</v>
+        <v>0.2454985958598197</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1114080844657333</v>
+        <v>0.1619311361205658</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3535659185249552</v>
+        <v>0.420281286547447</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>8.998817299921246</v>
+        <v>11.22479395168031</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -20685,23 +20685,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3106905028158632</v>
+        <v>0.2426356659040417</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4633730418729498</v>
+        <v>0.3788237551513692</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1895592590703972</v>
+        <v>0.2028395722328293</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5573961811995695</v>
+        <v>0.4925806186849435</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>19.08225464139818</v>
+        <v>16.37597444758325</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -21709,23 +21709,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.01154344806255134</v>
+        <v>0.006120192016825021</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.07408747795265137</v>
+        <v>0.06012320962571658</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1061619366314453</v>
+        <v>0.09528537146584415</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1074404396051661</v>
+        <v>0.07823165610432277</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>11.8414854814112</v>
+        <v>10.35388116423032</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -21739,23 +21739,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.01488481689920652</v>
+        <v>0.005535485049966661</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.08839682498063219</v>
+        <v>0.05677321933914242</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.126429986455675</v>
+        <v>0.08995749975391937</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1220033479016315</v>
+        <v>0.07440084038481461</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>14.19252397219208</v>
+        <v>9.476067990538183</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -21775,19 +21775,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01609552612780798</v>
+        <v>0.01419238802985192</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09361443961301816</v>
+        <v>0.09330944816521053</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1438214086839515</v>
+        <v>0.1542796947614722</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1268681446534471</v>
+        <v>0.1191318094794666</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>13.92351792819716</v>
+        <v>15.46801614530766</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -21805,19 +21805,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.01218098244121581</v>
+        <v>0.02149639031044486</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.0805318969657491</v>
+        <v>0.1180919036049075</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.1152336943088542</v>
+        <v>0.225547638065077</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1103674881530599</v>
+        <v>0.1466164735302444</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>11.73286624451748</v>
+        <v>19.730291639161</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -21837,19 +21837,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.009067965026057084</v>
+        <v>0.0115446531601238</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07271949742377345</v>
+        <v>0.08183659604976744</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1155182753452332</v>
+        <v>0.1235278414180291</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09522586322033046</v>
+        <v>0.1074460476710233</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>12.47760285238758</v>
+        <v>13.35435489691229</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -21867,19 +21867,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.01981283583215756</v>
+        <v>0.01147360651226855</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1167209868507359</v>
+        <v>0.08757481064033745</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1677452169885068</v>
+        <v>0.1303919841813123</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.1407580755486433</v>
+        <v>0.1071149219869414</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>18.80152769236199</v>
+        <v>13.72057000228707</v>
       </c>
     </row>
     <row r="16" ht="121.5" customHeight="1">
@@ -23019,23 +23019,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.05542053172860058</v>
+        <v>0.1484015136024242</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1760950803293676</v>
+        <v>0.2928022443891146</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06154417318109934</v>
+        <v>0.1014716580542244</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2354156573565161</v>
+        <v>0.3852291702382158</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>6.454327067704425</v>
+        <v>11.08822643635957</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -23049,23 +23049,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.05858525017000873</v>
+        <v>0.04031788897699198</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.2012602455619599</v>
+        <v>0.1624922484918353</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.07172022125426364</v>
+        <v>0.05795996952053876</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2420439013278557</v>
+        <v>0.2007931497262593</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>7.548484998367848</v>
+        <v>5.975335403858475</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -23085,19 +23085,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.012047551980325</v>
+        <v>0.02421050856555542</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09107772936118678</v>
+        <v>0.1398620117211604</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03286254638445667</v>
+        <v>0.05193637354608074</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1097613410100523</v>
+        <v>0.1555972640040802</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.256201557242659</v>
+        <v>5.198864039965541</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -23115,19 +23115,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.02727141392038016</v>
+        <v>0.02690298434878434</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1239116918605985</v>
+        <v>0.1286633930717154</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.04262797420252511</v>
+        <v>0.04510197621602989</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1651405883493823</v>
+        <v>0.1640212923640841</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>4.385439164653096</v>
+        <v>4.617394336811712</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -23147,19 +23147,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09641839592650238</v>
+        <v>0.1309250492672866</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2592260181448853</v>
+        <v>0.3049085056867895</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08935557446442141</v>
+        <v>0.1067546114192788</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3105131171569124</v>
+        <v>0.3618356661072628</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>9.52099333042829</v>
+        <v>11.48689057879469</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -23177,19 +23177,19 @@
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.06445683550879587</v>
+        <v>0.06070748527242069</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.2064557601909971</v>
+        <v>0.2016293622012748</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.07128383465103959</v>
+        <v>0.0710157808240512</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2538835077526618</v>
+        <v>0.2463888903185789</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>7.508001611718536</v>
+        <v>7.46258531773038</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -24330,23 +24330,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.06795354500436457</v>
+        <v>0.116660816934086</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1688846615911083</v>
+        <v>0.2363404433621184</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.07933859806233318</v>
+        <v>0.1289890640064474</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2606790076020019</v>
+        <v>0.3415564622929656</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>7.170052743495335</v>
+        <v>10.78802194891196</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -24360,23 +24360,23 @@
       </c>
       <c r="K13" s="8" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.06707546117167366</v>
+        <v>0.1021131751895863</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1862262760092889</v>
+        <v>0.2374898373367786</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.07766211738542853</v>
+        <v>0.1151076428853305</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2589893070604917</v>
+        <v>0.3195515219641213</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>7.611272989608751</v>
+        <v>10.6183139290415</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -24396,19 +24396,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1058180778442196</v>
+        <v>0.1869833850773887</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1534321275905388</v>
+        <v>0.2187750490447671</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08809684933142148</v>
+        <v>0.1602092716799105</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3252969072158843</v>
+        <v>0.4324157548903471</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>6.789186705739279</v>
+        <v>10.22837080469653</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -24426,19 +24426,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.08866693449978783</v>
+        <v>0.1637798301948524</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1766978338663119</v>
+        <v>0.2224725381015044</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.08920682230246633</v>
+        <v>0.152618501313846</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.2977699355203406</v>
+        <v>0.4046972080393592</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>7.578821308844947</v>
+        <v>10.37401064209875</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -24458,19 +24458,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1547414090466067</v>
+        <v>0.1859248209055606</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.317283973611676</v>
+        <v>0.3419177691299968</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.136469152614819</v>
+        <v>0.1793028908656633</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.393371845772682</v>
+        <v>0.4311900055724397</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>12.86234923906378</v>
+        <v>14.95163919695217</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -24484,23 +24484,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 2, 'min_samples_leaf': 5, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 15, 'learning_rate': 0.1}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.1797099739082123</v>
+        <v>0.1763915165259207</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.3425758109784422</v>
+        <v>0.3315938554321319</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.1472075902793563</v>
+        <v>0.170713512600976</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.4239221318924176</v>
+        <v>0.4199899005046678</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>13.87405228643344</v>
+        <v>14.53758691833625</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -25641,23 +25641,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.0684543802751485</v>
+        <v>0.1868933428939677</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1901071653883977</v>
+        <v>0.3281672395114432</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.06850175802635128</v>
+        <v>0.1350355941504827</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.2616378800463505</v>
+        <v>0.4323116270631264</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>7.27016036364603</v>
+        <v>13.39422650794667</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -25675,19 +25675,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.05297114483779598</v>
+        <v>0.2675790430414829</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1615033034045295</v>
+        <v>0.3268544558836162</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.0585836775225524</v>
+        <v>0.1306883217455523</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.2301546107246083</v>
+        <v>0.5172804297878308</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>6.054467265764933</v>
+        <v>14.66356348281466</v>
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
@@ -25707,19 +25707,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0333370969771663</v>
+        <v>0.1030686807528391</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09773503032370742</v>
+        <v>0.1819820423262151</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0425811832420449</v>
+        <v>0.09223508037685113</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1825844927072568</v>
+        <v>0.3210431135421519</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.893808493847143</v>
+        <v>7.618499652777773</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -25737,19 +25737,19 @@
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.03709078409452823</v>
+        <v>0.09911373436396925</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.1336559414593915</v>
+        <v>0.2078738251838681</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.05311694377558381</v>
+        <v>0.09624469877623751</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.1925896780581146</v>
+        <v>0.3148233383406784</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>5.125771796723582</v>
+        <v>8.435243559158796</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
@@ -25769,19 +25769,19 @@
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1032605258212097</v>
+        <v>0.199345092056154</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2786278701887796</v>
+        <v>0.3629362816476941</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1010206167250612</v>
+        <v>0.1499021705789642</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3213417586016635</v>
+        <v>0.4464807857636809</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>10.5406572771299</v>
+        <v>14.560217686284</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -25795,23 +25795,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.07411274171138367</v>
+        <v>0.1320598406434556</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.232422227830839</v>
+        <v>0.2984475980667086</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.08815242654466753</v>
+        <v>0.1229455275867466</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2722365546934938</v>
+        <v>0.3634003861355345</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>8.816784349695979</v>
+        <v>11.9672777519537</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -26954,53 +26954,53 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.04510068155552985</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1689503320250498</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.226297709256333</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.2123692104697144</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>26.89149481770562</v>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>Voting Regressor</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr">
+        <is>
           <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>0.03241712192752679</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.1342791651316924</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.1728802993271292</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0.1800475546280115</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>20.00104670333702</v>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>Voting Regressor</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 10}</t>
-        </is>
-      </c>
       <c r="L13" s="8" t="n">
-        <v>0.03662233276774005</v>
+        <v>0.04980672538492718</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1528442124385878</v>
+        <v>0.1826987865635949</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.1969216328046443</v>
+        <v>0.2494785646279711</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1913696234195491</v>
+        <v>0.2231742041207433</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>22.75134765940671</v>
+        <v>29.81777350865247</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -27016,23 +27016,23 @@
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearRegression()}</t>
+          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.756136051202942e-05</v>
+        <v>0.04734318653455403</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006788202926610178</v>
+        <v>0.1809559602594187</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.008800961742363828</v>
+        <v>0.3022055021748114</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.008219571796147863</v>
+        <v>0.217584895005499</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8844635168971907</v>
+        <v>26.23939086817073</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -27046,23 +27046,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': GradientBoostingRegressor(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.164790672844123</v>
+        <v>0.03134674289066167</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3343087536559027</v>
+        <v>0.1364561230918045</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.4591379233769612</v>
+        <v>0.2387270627706315</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.40594417454143</v>
+        <v>0.1770501140656556</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>56.49857134269658</v>
+        <v>19.88786515733954</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -27078,23 +27078,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 100, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 20, 'max_features': 'sqrt', 'max_depth': 30, 'learning_rate': 0.5}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05294789140659416</v>
+        <v>0.03009849899976461</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1847045617361555</v>
+        <v>0.1370046881753148</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2637856389990065</v>
+        <v>0.1892574314921693</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2301040882005232</v>
+        <v>0.1734891898642812</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>25.87243823564403</v>
+        <v>20.50390236577407</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -27108,23 +27108,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 100, 'min_samples_split': 5, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': None, 'max_features': 'sqrt', 'max_depth': 20, 'learning_rate': 1}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.04406089955204358</v>
+        <v>0.03009849899976461</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1742131448120607</v>
+        <v>0.1370046881753148</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.2276154659966421</v>
+        <v>0.1892574314921693</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2099068830506603</v>
+        <v>0.1734891898642812</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>26.36137293529699</v>
+        <v>20.50390236577407</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -28268,53 +28268,53 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
+          <t>{'rf__n_estimators': 50, 'gb__n_estimators': 10}</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.05270463853997142</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1768179029561048</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4152475153272641</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.2295749083414201</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>31.00075962721473</v>
+      </c>
+      <c r="I13" s="9" t="inlineStr">
+        <is>
+          <t>Voting Regressor</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K13" s="8" t="inlineStr">
+        <is>
           <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
         </is>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>0.0337529644539025</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>0.1363119585277916</v>
-      </c>
-      <c r="F13" s="5" t="n">
-        <v>0.2601056074628622</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0.1837197987531624</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>22.23626139533787</v>
-      </c>
-      <c r="I13" s="9" t="inlineStr">
-        <is>
-          <t>Voting Regressor</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="inlineStr">
-        <is>
-          <t>{'rf__n_estimators': 100, 'gb__n_estimators': 10}</t>
-        </is>
-      </c>
       <c r="L13" s="8" t="n">
-        <v>0.03586413028548839</v>
+        <v>0.04955204633419538</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1401630246912675</v>
+        <v>0.183877216237759</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2543586787540389</v>
+        <v>0.3922894595330763</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1893782730027085</v>
+        <v>0.22260288932131</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>22.932375229108</v>
+        <v>32.49476226594242</v>
       </c>
     </row>
     <row r="14">
@@ -28334,19 +28334,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1399302852979218</v>
+        <v>0.08467267442176515</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3187068685555481</v>
+        <v>0.218586908435852</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7270631225166623</v>
+        <v>0.7514200382554901</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3740725668876585</v>
+        <v>0.2909856945311318</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>49.60254184220145</v>
+        <v>34.89998388921008</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -28360,23 +28360,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
+          <t>{'final_estimator': RandomForestRegressor(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.1883111322637764</v>
+        <v>0.08586753049346654</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.3722620667351177</v>
+        <v>0.2412027557516552</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>0.8544745343992631</v>
+        <v>0.7266334000069489</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.4339483059809963</v>
+        <v>0.2930316202962857</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>58.23449872182947</v>
+        <v>38.93649271454672</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -28392,23 +28392,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 200, 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05016420995472174</v>
+        <v>0.05358482875635333</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1779620615006171</v>
+        <v>0.1847798958405945</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3714125642462172</v>
+        <v>0.4966655473809958</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2239736813885099</v>
+        <v>0.2314839708410786</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>28.92868340338037</v>
+        <v>31.88538746614789</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -28422,23 +28422,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 200, 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 2, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 20, 'learning_rate': 0.5}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.05016420995472174</v>
+        <v>0.05358482875635333</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1779620615006171</v>
+        <v>0.1847798958405945</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.3714125642462172</v>
+        <v>0.4966655473809958</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.2239736813885099</v>
+        <v>0.2314839708410786</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>28.92868340338037</v>
+        <v>31.88538746614789</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">
@@ -29580,23 +29580,23 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>{'rf__n_estimators': 200, 'gb__n_estimators': 200}</t>
+          <t>{'rf__n_estimators': 10, 'gb__n_estimators': 100}</t>
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.01656644379705167</v>
+        <v>0.04947930157654035</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1058572434508086</v>
+        <v>0.1817546364939273</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1655548408219376</v>
+        <v>0.2921213627559956</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>0.1287106980676108</v>
+        <v>0.2224394335016621</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>16.16472218678046</v>
+        <v>31.45306198742186</v>
       </c>
       <c r="I13" s="9" t="inlineStr">
         <is>
@@ -29614,19 +29614,19 @@
         </is>
       </c>
       <c r="L13" s="8" t="n">
-        <v>0.02183179938159012</v>
+        <v>0.04300863241599255</v>
       </c>
       <c r="M13" s="8" t="n">
-        <v>0.1269535673126922</v>
+        <v>0.1680454157803269</v>
       </c>
       <c r="N13" s="8" t="n">
-        <v>0.2030699605249353</v>
+        <v>0.294614888559351</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>0.1477558776549688</v>
+        <v>0.207385227091981</v>
       </c>
       <c r="P13" s="8" t="n">
-        <v>19.95466545237592</v>
+        <v>28.18884424166663</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
@@ -29646,19 +29646,19 @@
         </is>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4873622580206562</v>
+        <v>0.285171002115983</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5594951773469929</v>
+        <v>0.4719016840294443</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9074878492009186</v>
+        <v>0.9351071217462961</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6981133561397148</v>
+        <v>0.5340140467403296</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>92.73522264170536</v>
+        <v>87.00379994416706</v>
       </c>
       <c r="I14" s="9" t="inlineStr">
         <is>
@@ -29672,23 +29672,23 @@
       </c>
       <c r="K14" s="8" t="inlineStr">
         <is>
-          <t>{'final_estimator': LinearRegression()}</t>
+          <t>{'final_estimator': LinearSVR(random_state=42)}</t>
         </is>
       </c>
       <c r="L14" s="8" t="n">
-        <v>0.6716682042513148</v>
+        <v>0.0940508755751939</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>0.6726590938199354</v>
+        <v>0.2622153317615985</v>
       </c>
       <c r="N14" s="8" t="n">
-        <v>1.101248612038371</v>
+        <v>0.608118105608224</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>0.8195536616057028</v>
+        <v>0.3066771520266776</v>
       </c>
       <c r="P14" s="8" t="n">
-        <v>105.6512102179655</v>
+        <v>39.64555375316041</v>
       </c>
     </row>
     <row r="15" ht="30.75" customHeight="1">
@@ -29704,23 +29704,23 @@
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>{'n_estimators': 200, 'min_samples_split': 2, 'min_samples_leaf': 10, 'min_impurity_decrease': 0, 'max_leaf_nodes': 5, 'max_features': 'log2', 'max_depth': 30, 'learning_rate': 0.1}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03376053676883926</v>
+        <v>0.04179045613419914</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1510353020263334</v>
+        <v>0.1639137618272858</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2730909104790326</v>
+        <v>0.3302368526445421</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1837404059232461</v>
+        <v>0.2044271413834257</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>23.05636575127964</v>
+        <v>27.1309544457224</v>
       </c>
       <c r="I15" s="9" t="inlineStr">
         <is>
@@ -29734,23 +29734,23 @@
       </c>
       <c r="K15" s="8" t="inlineStr">
         <is>
-          <t>{'n_estimators': 50, 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0, 'max_leaf_nodes': 15, 'max_features': 'log2', 'max_depth': 20, 'learning_rate': 0.05}</t>
+          <t>{'n_estimators': 10, 'min_samples_split': 10, 'min_samples_leaf': 10, 'min_impurity_decrease': 2, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': None, 'learning_rate': 0.05}</t>
         </is>
       </c>
       <c r="L15" s="8" t="n">
-        <v>0.02608151821313694</v>
+        <v>0.04179045613419914</v>
       </c>
       <c r="M15" s="8" t="n">
-        <v>0.1360944171986248</v>
+        <v>0.1639137618272858</v>
       </c>
       <c r="N15" s="8" t="n">
-        <v>0.2352322169106514</v>
+        <v>0.3302368526445421</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>0.1614977343901051</v>
+        <v>0.2044271413834257</v>
       </c>
       <c r="P15" s="8" t="n">
-        <v>21.2209750850194</v>
+        <v>27.1309544457224</v>
       </c>
     </row>
     <row r="16" ht="30.75" customHeight="1">

--- a/data/performance_sheets_option2/window3/BA11 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option2/window3/BA11 Overall Model Peformance Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="805" firstSheet="8" activeTab="8" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="805" firstSheet="7" activeTab="7" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Option 1 - LR1 - DN1 (80-20)" sheetId="1" state="visible" r:id="rId1"/>
@@ -618,8 +618,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1933,8 +1933,8 @@
     <col width="60.75" customWidth="1" style="1" min="3" max="3"/>
     <col width="20.75" customWidth="1" style="1" min="4" max="10"/>
     <col width="60.75" customWidth="1" style="1" min="11" max="11"/>
-    <col width="20.75" customWidth="1" style="1" min="12" max="16"/>
-    <col width="20.75" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="12" max="17"/>
+    <col width="20.75" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3245,8 +3245,8 @@
   <cols>
     <col width="20.75" customWidth="1" style="1" min="1" max="2"/>
     <col width="60.75" customWidth="1" style="1" min="3" max="3"/>
-    <col width="20.75" customWidth="1" style="1" min="4" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="4" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4557,8 +4557,8 @@
   <cols>
     <col width="20.75" customWidth="1" style="1" min="1" max="2"/>
     <col width="60.75" customWidth="1" style="1" min="3" max="3"/>
-    <col width="20.75" customWidth="1" style="1" min="4" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="4" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5867,8 +5867,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7177,8 +7177,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8487,8 +8487,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9797,8 +9797,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11107,8 +11107,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12417,8 +12417,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13727,8 +13727,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14749,8 +14749,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16059,8 +16059,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17081,8 +17081,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -18103,8 +18103,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -19125,8 +19125,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -20147,8 +20147,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -21169,8 +21169,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -22479,8 +22479,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -23714,31 +23714,13 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>0.06063719093799591</v>
-      </c>
-      <c r="E24" s="5" t="n">
-        <v>0.1768891960382462</v>
-      </c>
-      <c r="F24" s="5" t="n">
-        <v>0.06780542433261871</v>
-      </c>
-      <c r="G24" s="5" t="n">
-        <v>0.2462461998447812</v>
-      </c>
-      <c r="H24" s="5" t="n">
-        <v>6.4021997153759</v>
-      </c>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="5" t="n"/>
+      <c r="D24" s="5" t="n"/>
+      <c r="E24" s="5" t="n"/>
+      <c r="F24" s="5" t="n"/>
+      <c r="G24" s="5" t="n"/>
+      <c r="H24" s="5" t="n"/>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -23790,8 +23772,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -25101,8 +25083,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="20.75" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.75" customWidth="1" style="1" min="1" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="1" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -26336,31 +26318,13 @@
           <t>Convolutional neural network</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>0.1854676306247711</v>
-      </c>
-      <c r="E24" s="5" t="n">
-        <v>0.4021100401878357</v>
-      </c>
-      <c r="F24" s="5" t="n">
-        <v>0.1484173238277435</v>
-      </c>
-      <c r="G24" s="5" t="n">
-        <v>0.4306595298199857</v>
-      </c>
-      <c r="H24" s="5" t="n">
-        <v>15.74795991182327</v>
-      </c>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="5" t="n"/>
+      <c r="D24" s="5" t="n"/>
+      <c r="E24" s="5" t="n"/>
+      <c r="F24" s="5" t="n"/>
+      <c r="G24" s="5" t="n"/>
+      <c r="H24" s="5" t="n"/>
       <c r="I24" s="9" t="inlineStr">
         <is>
           <t>Convolutional neural network</t>
@@ -26414,8 +26378,8 @@
   <cols>
     <col width="20.75" customWidth="1" style="1" min="1" max="2"/>
     <col width="60.75" customWidth="1" style="1" min="3" max="3"/>
-    <col width="20.75" customWidth="1" style="1" min="4" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="4" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -27718,7 +27682,7 @@
   </sheetPr>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J24" sqref="J24:P24"/>
     </sheetView>
   </sheetViews>
@@ -27728,8 +27692,8 @@
     <col width="60.75" customWidth="1" style="1" min="3" max="3"/>
     <col width="20.75" customWidth="1" style="1" min="4" max="10"/>
     <col width="60.75" customWidth="1" style="1" min="11" max="11"/>
-    <col width="20.75" customWidth="1" style="1" min="12" max="16"/>
-    <col width="20.75" customWidth="1" style="1" min="17" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="12" max="17"/>
+    <col width="20.75" customWidth="1" style="1" min="18" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -29032,7 +28996,7 @@
   </sheetPr>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="J24" sqref="J24:P24"/>
     </sheetView>
   </sheetViews>
@@ -29040,8 +29004,8 @@
   <cols>
     <col width="20.75" customWidth="1" style="1" min="1" max="2"/>
     <col width="60.75" customWidth="1" style="1" min="3" max="3"/>
-    <col width="20.75" customWidth="1" style="1" min="4" max="13"/>
-    <col width="20.75" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="20.75" customWidth="1" style="1" min="4" max="14"/>
+    <col width="20.75" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
